--- a/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
+++ b/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
@@ -359,8 +359,8 @@
   </sheetPr>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T4" activeCellId="0" sqref="T4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y4" activeCellId="0" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -673,19 +673,19 @@
         <v>1500</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>100</v>
+        <v>312</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1000</v>

--- a/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
+++ b/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y4" activeCellId="0" sqref="Y4"/>
+      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -634,73 +634,73 @@
         <v>0</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>3600</v>
+        <v>4180</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>650</v>
+        <v>323</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>2100</v>
+        <v>2160</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>4000</v>
+        <v>4080</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>1500</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>840</v>
+        <v>728</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>600</v>
+        <v>914</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>480</v>
+        <v>662</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>360</v>
+        <v>499</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>312</v>
+        <v>432</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>1000</v>
+        <v>3700</v>
       </c>
       <c r="X4" s="6" t="n">
-        <v>700</v>
+        <v>365</v>
       </c>
       <c r="Y4" s="6" t="n">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="Z4" s="6" t="n">
-        <v>1500</v>
+        <v>1710</v>
       </c>
       <c r="AA4" s="6" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
+++ b/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Readme" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="constants" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Readme" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="constants" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t xml:space="preserve">This file constaints the electricity demand coefficients used in different scenarios. C_0 is constant increase in demand whereas C_1 is the temperature constant of demand increase.</t>
   </si>
@@ -315,6 +315,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -357,10 +463,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -786,6 +892,172 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>800</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>700</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>280</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>160</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="X6" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y6" s="6" t="n">
+        <v>300</v>
+      </c>
+      <c r="Z6" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AA6" s="6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
+++ b/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
@@ -465,8 +465,8 @@
   </sheetPr>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -583,22 +583,22 @@
         <v>400</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>30</v>
       </c>
       <c r="K2" s="6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L2" s="6" t="n">
         <v>400</v>
       </c>
       <c r="M2" s="6" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="N2" s="6" t="n">
         <v>0</v>
@@ -613,13 +613,13 @@
         <v>400</v>
       </c>
       <c r="R2" s="6" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="S2" s="6" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="T2" s="6" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="U2" s="6" t="n">
         <v>120</v>
@@ -631,13 +631,13 @@
         <v>300</v>
       </c>
       <c r="X2" s="6" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="Y2" s="6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Z2" s="6" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AA2" s="6" t="n">
         <v>100</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>4180</v>
+        <v>2900</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>405</v>
@@ -758,7 +758,7 @@
         <v>280</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="L4" s="6" t="n">
         <v>2160</v>
@@ -767,7 +767,7 @@
         <v>4080</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>200</v>
@@ -776,34 +776,34 @@
         <v>200</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="R4" s="6" t="n">
         <v>728</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>914</v>
+        <v>600</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>662</v>
+        <v>500</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>499</v>
+        <v>450</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>432</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="X4" s="6" t="n">
         <v>365</v>
       </c>
       <c r="Y4" s="6" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="Z4" s="6" t="n">
-        <v>1710</v>
+        <v>1400</v>
       </c>
       <c r="AA4" s="6" t="n">
         <v>460</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -915,64 +915,64 @@
         <v>800</v>
       </c>
       <c r="H6" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="I6" s="6" t="n">
         <v>150</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>100</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>60</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="6" t="n">
         <v>600</v>
       </c>
       <c r="R6" s="6" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="S6" s="6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T6" s="6" t="n">
         <v>160</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="X6" s="6" t="n">
+        <v>160</v>
+      </c>
+      <c r="Y6" s="6" t="n">
         <v>200</v>
       </c>
-      <c r="Y6" s="6" t="n">
-        <v>300</v>
-      </c>
       <c r="Z6" s="6" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AA6" s="6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
+++ b/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId3"/>
@@ -428,8 +428,8 @@
   </sheetPr>
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -465,8 +465,8 @@
   </sheetPr>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -921,7 +921,7 @@
         <v>150</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>1700</v>

--- a/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
+++ b/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t xml:space="preserve">This file constaints the electricity demand coefficients used in different scenarios. C_0 is constant increase in demand whereas C_1 is the temperature constant of demand increase.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This file is for easy editing of the coefficients. The coefficients should, however, be saved in the file constants.csv.</t>
   </si>
   <si>
     <t xml:space="preserve">Scenario</t>
@@ -428,8 +425,8 @@
   </sheetPr>
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -443,9 +440,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -465,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -479,108 +474,108 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>2025</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>400</v>
+        <v>-600</v>
       </c>
       <c r="H2" s="6" t="n">
         <v>100</v>
@@ -589,19 +584,19 @@
         <v>60</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>30</v>
+        <v>-600</v>
       </c>
       <c r="K2" s="6" t="n">
         <v>100</v>
       </c>
       <c r="L2" s="6" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M2" s="6" t="n">
         <v>800</v>
       </c>
       <c r="N2" s="6" t="n">
-        <v>0</v>
+        <v>-705</v>
       </c>
       <c r="O2" s="6" t="n">
         <v>30</v>
@@ -613,45 +608,45 @@
         <v>400</v>
       </c>
       <c r="R2" s="6" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="S2" s="6" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="T2" s="6" t="n">
         <v>100</v>
       </c>
       <c r="U2" s="6" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="V2" s="6" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="W2" s="6" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="X2" s="6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="6" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>2025</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>0</v>
@@ -728,19 +723,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>2040</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0</v>
@@ -755,10 +750,10 @@
         <v>323</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="L4" s="6" t="n">
         <v>2160</v>
@@ -767,7 +762,7 @@
         <v>4080</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>200</v>
@@ -779,19 +774,19 @@
         <v>1600</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>728</v>
+        <v>600</v>
       </c>
       <c r="S4" s="6" t="n">
         <v>600</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>450</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>432</v>
+        <v>250</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>4000</v>
@@ -803,7 +798,7 @@
         <v>400</v>
       </c>
       <c r="Z4" s="6" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="AA4" s="6" t="n">
         <v>460</v>
@@ -811,13 +806,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>2040</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>0</v>
@@ -894,25 +889,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>2030</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>200</v>
@@ -921,10 +916,10 @@
         <v>150</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>800</v>
@@ -933,7 +928,7 @@
         <v>2000</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1000</v>
+        <v>353</v>
       </c>
       <c r="O6" s="6" t="n">
         <v>60</v>
@@ -945,13 +940,13 @@
         <v>600</v>
       </c>
       <c r="R6" s="6" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="S6" s="6" t="n">
         <v>300</v>
       </c>
       <c r="T6" s="6" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>180</v>
@@ -960,30 +955,30 @@
         <v>150</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="X6" s="6" t="n">
         <v>160</v>
       </c>
       <c r="Y6" s="6" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Z6" s="6" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="AA6" s="6" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>2030</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0</v>

--- a/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
+++ b/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="Z13" activeCellId="0" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -584,10 +584,10 @@
         <v>60</v>
       </c>
       <c r="J2" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="K2" s="6" t="n">
         <v>-600</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>100</v>
       </c>
       <c r="L2" s="6" t="n">
         <v>0</v>
@@ -599,10 +599,10 @@
         <v>-705</v>
       </c>
       <c r="O2" s="6" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="P2" s="6" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="6" t="n">
         <v>400</v>
@@ -765,10 +765,10 @@
         <v>1400</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="6" t="n">
         <v>1600</v>
@@ -789,7 +789,7 @@
         <v>250</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>4000</v>
+        <v>1890</v>
       </c>
       <c r="X4" s="6" t="n">
         <v>365</v>
@@ -910,19 +910,19 @@
         <v>600</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>300</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>800</v>
+        <v>970</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>2000</v>
@@ -931,43 +931,43 @@
         <v>353</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="Q6" s="6" t="n">
         <v>600</v>
       </c>
       <c r="R6" s="6" t="n">
-        <v>300</v>
+        <v>437</v>
       </c>
       <c r="S6" s="6" t="n">
-        <v>300</v>
+        <v>411</v>
       </c>
       <c r="T6" s="6" t="n">
-        <v>190</v>
+        <v>298</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>900</v>
       </c>
       <c r="X6" s="6" t="n">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="Y6" s="6" t="n">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="Z6" s="6" t="n">
-        <v>580</v>
+        <v>900</v>
       </c>
       <c r="AA6" s="6" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
+++ b/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z13" activeCellId="0" sqref="Z13"/>
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="6" t="n">
-        <v>800</v>
+        <v>-1200</v>
       </c>
       <c r="N2" s="6" t="n">
         <v>-705</v>
@@ -759,7 +759,7 @@
         <v>2160</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>4080</v>
+        <v>2900</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>1400</v>
@@ -925,7 +925,7 @@
         <v>970</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>353</v>

--- a/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
+++ b/timeseries/Basic_processing/Elec_demand/input/demand_coefficients.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -578,10 +578,10 @@
         <v>-600</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="J2" s="6" t="n">
         <v>68</v>
@@ -608,19 +608,19 @@
         <v>400</v>
       </c>
       <c r="R2" s="6" t="n">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="S2" s="6" t="n">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="T2" s="6" t="n">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="U2" s="6" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="V2" s="6" t="n">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="W2" s="6" t="n">
         <v>600</v>
